--- a/biology/Botanique/Lupinus_longifolius/Lupinus_longifolius.xlsx
+++ b/biology/Botanique/Lupinus_longifolius/Lupinus_longifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lupinus longifolius  est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Nord (Californie, Nord-Ouest du Mexique).
 Ce sont des arbrisseaux pérennes à tiges robustes, dressées, pouvant atteindre de 50 cm à 1,5 m de haut, aux fleurs bleu-violet groupées en longues grappes étroites.
@@ -512,14 +524,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (12 septembre 2019)[1] : 
-Lupinus albifrons var. longifolius (S. Wats.) Isely[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (12 septembre 2019) : 
+Lupinus albifrons var. longifolius (S. Wats.) Isely
 Lupinus albifrons var. longifolius (S.Watson) Isely
-Lupinus chamissonis var. longifolius S. Wats.[2]
+Lupinus chamissonis var. longifolius S. Wats.
 Lupinus chamissonis var. longifolius S.Watson
-Lupinus mollisifolius A. Davids.[2]</t>
+Lupinus mollisifolius A. Davids.</t>
         </is>
       </c>
     </row>
